--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11535"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11532"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$57</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>Pozo</t>
   </si>
@@ -32,12 +35,6 @@
     <t>CAST-205</t>
   </si>
   <si>
-    <t>CAST-092</t>
-  </si>
-  <si>
-    <t>CAN-088</t>
-  </si>
-  <si>
     <t>CAST-012</t>
   </si>
   <si>
@@ -71,18 +68,12 @@
     <t>CAST-405</t>
   </si>
   <si>
-    <t>CAST-097</t>
-  </si>
-  <si>
     <t>CAST-191</t>
   </si>
   <si>
     <t>CAST-231</t>
   </si>
   <si>
-    <t>CAST-052</t>
-  </si>
-  <si>
     <t>CAN-323</t>
   </si>
   <si>
@@ -137,12 +128,6 @@
     <t xml:space="preserve">CAN-372 </t>
   </si>
   <si>
-    <t>CAST-457</t>
-  </si>
-  <si>
-    <t>CAST-138</t>
-  </si>
-  <si>
     <t>CAST-597</t>
   </si>
   <si>
@@ -170,21 +155,12 @@
     <t>CAN-32</t>
   </si>
   <si>
-    <t>CA-201</t>
-  </si>
-  <si>
-    <t>CA-63</t>
-  </si>
-  <si>
     <t>CAN-120</t>
   </si>
   <si>
     <t>CAN-260</t>
   </si>
   <si>
-    <t>CA-129H</t>
-  </si>
-  <si>
     <t>CAN-162</t>
   </si>
   <si>
@@ -275,18 +251,12 @@
     <t>CA12</t>
   </si>
   <si>
-    <t>CA129H</t>
-  </si>
-  <si>
     <t>CA133</t>
   </si>
   <si>
     <t>CA135</t>
   </si>
   <si>
-    <t>CA138</t>
-  </si>
-  <si>
     <t>CA139</t>
   </si>
   <si>
@@ -332,9 +302,6 @@
     <t>CA426</t>
   </si>
   <si>
-    <t>CA457</t>
-  </si>
-  <si>
     <t>CA469ST</t>
   </si>
   <si>
@@ -363,6 +330,72 @@
   </si>
   <si>
     <t>CAN22</t>
+  </si>
+  <si>
+    <t>CAST-92</t>
+  </si>
+  <si>
+    <t>CAN-88</t>
+  </si>
+  <si>
+    <t>CAST-97</t>
+  </si>
+  <si>
+    <t>CAST-52</t>
+  </si>
+  <si>
+    <t>CAST-201</t>
+  </si>
+  <si>
+    <t>CAST-63</t>
+  </si>
+  <si>
+    <t>CAN-69</t>
+  </si>
+  <si>
+    <t>CAST-61</t>
+  </si>
+  <si>
+    <t>CAST-131</t>
+  </si>
+  <si>
+    <t>CAST-132</t>
+  </si>
+  <si>
+    <t>CAST-13</t>
+  </si>
+  <si>
+    <t>CAST-41H</t>
+  </si>
+  <si>
+    <t>CAN-335</t>
+  </si>
+  <si>
+    <t>CAST-67</t>
+  </si>
+  <si>
+    <t>CA61</t>
+  </si>
+  <si>
+    <t>CA131</t>
+  </si>
+  <si>
+    <t>CA132</t>
+  </si>
+  <si>
+    <t>CA13</t>
+  </si>
+  <si>
+    <t>CA41H</t>
+  </si>
+  <si>
+    <t>CAN335</t>
+  </si>
+  <si>
+    <t>CA67</t>
+  </si>
+  <si>
+    <t>CAN69</t>
   </si>
 </sst>
 </file>
@@ -683,473 +716,506 @@
   <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>37</v>
+      </c>
+      <c r="B42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B45" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>106</v>
+      </c>
+      <c r="B48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
+      <c r="B55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B56" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="B57" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>33</v>
-      </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="B58" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>43</v>
-      </c>
-      <c r="B45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>44</v>
-      </c>
-      <c r="B46" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="B47" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>114</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1048576" t="s">
         <v>47</v>
       </c>
-      <c r="B49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>49</v>
-      </c>
-      <c r="B51" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>51</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>52</v>
-      </c>
-      <c r="B54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048576" t="s">
-        <v>56</v>
-      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B57"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>Pozo</t>
   </si>
@@ -168,9 +168,6 @@
   </si>
   <si>
     <t>CAN-143</t>
-  </si>
-  <si>
-    <t>CA</t>
   </si>
   <si>
     <t>POZO</t>
@@ -713,10 +710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -726,7 +723,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -734,23 +731,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -758,7 +755,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -766,7 +763,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -774,7 +771,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -782,7 +779,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -790,7 +787,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -798,7 +795,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -806,7 +803,7 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
@@ -814,7 +811,7 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -822,7 +819,7 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -830,7 +827,7 @@
         <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -838,15 +835,15 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -854,7 +851,7 @@
         <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -862,15 +859,15 @@
         <v>14</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -878,7 +875,7 @@
         <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -886,7 +883,7 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -894,7 +891,7 @@
         <v>17</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -902,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -910,7 +907,7 @@
         <v>19</v>
       </c>
       <c r="B24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -918,7 +915,7 @@
         <v>20</v>
       </c>
       <c r="B25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -926,7 +923,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -934,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -942,7 +939,7 @@
         <v>23</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -950,7 +947,7 @@
         <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -958,7 +955,7 @@
         <v>25</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -966,7 +963,7 @@
         <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -974,7 +971,7 @@
         <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -982,7 +979,7 @@
         <v>28</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -990,7 +987,7 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
@@ -998,7 +995,7 @@
         <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -1006,7 +1003,7 @@
         <v>32</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -1014,7 +1011,7 @@
         <v>33</v>
       </c>
       <c r="B37" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -1022,7 +1019,7 @@
         <v>29</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -1030,7 +1027,7 @@
         <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -1038,7 +1035,7 @@
         <v>35</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -1046,7 +1043,7 @@
         <v>36</v>
       </c>
       <c r="B41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -1054,7 +1051,7 @@
         <v>37</v>
       </c>
       <c r="B42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -1062,7 +1059,7 @@
         <v>38</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -1070,7 +1067,7 @@
         <v>39</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -1078,7 +1075,7 @@
         <v>40</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
@@ -1086,23 +1083,23 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1110,7 +1107,7 @@
         <v>42</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1118,15 +1115,15 @@
         <v>43</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1134,7 +1131,7 @@
         <v>44</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1142,7 +1139,7 @@
         <v>45</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1150,68 +1147,63 @@
         <v>46</v>
       </c>
       <c r="B54" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1048576" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11532"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="11535"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
   <si>
     <t>Pozo</t>
   </si>
@@ -393,6 +393,426 @@
   </si>
   <si>
     <t>CAN69</t>
+  </si>
+  <si>
+    <t>CAST-226</t>
+  </si>
+  <si>
+    <t>CAST-460</t>
+  </si>
+  <si>
+    <t>CAST-86</t>
+  </si>
+  <si>
+    <t>CAST-702</t>
+  </si>
+  <si>
+    <t>CAN-326</t>
+  </si>
+  <si>
+    <t>LL-138</t>
+  </si>
+  <si>
+    <t>GA-39</t>
+  </si>
+  <si>
+    <t>GA-41</t>
+  </si>
+  <si>
+    <t>LL-171</t>
+  </si>
+  <si>
+    <t>LL-177</t>
+  </si>
+  <si>
+    <t>LL-182</t>
+  </si>
+  <si>
+    <t>LL-168</t>
+  </si>
+  <si>
+    <t>LL-166</t>
+  </si>
+  <si>
+    <t>LL-330</t>
+  </si>
+  <si>
+    <t>YARI-0526</t>
+  </si>
+  <si>
+    <t>YARI-0525</t>
+  </si>
+  <si>
+    <t>YARI-0509</t>
+  </si>
+  <si>
+    <t>YARI-0506</t>
+  </si>
+  <si>
+    <t>YARI-0511</t>
+  </si>
+  <si>
+    <t>YARI-0516</t>
+  </si>
+  <si>
+    <t>GALAN-130</t>
+  </si>
+  <si>
+    <t>GALA-038</t>
+  </si>
+  <si>
+    <t>TESO-6</t>
+  </si>
+  <si>
+    <t>SROQ-003</t>
+  </si>
+  <si>
+    <t>PBLA 010</t>
+  </si>
+  <si>
+    <t>CSB-1534</t>
+  </si>
+  <si>
+    <t>CG-155</t>
+  </si>
+  <si>
+    <t>CG-169 P</t>
+  </si>
+  <si>
+    <t>CG-148 H</t>
+  </si>
+  <si>
+    <t>CG-158</t>
+  </si>
+  <si>
+    <t>CG-024</t>
+  </si>
+  <si>
+    <t>DN-27</t>
+  </si>
+  <si>
+    <t>DN-25</t>
+  </si>
+  <si>
+    <t>ACAE-8A</t>
+  </si>
+  <si>
+    <t>DN-18</t>
+  </si>
+  <si>
+    <t>ACAE-14</t>
+  </si>
+  <si>
+    <t>DN-033</t>
+  </si>
+  <si>
+    <t>DN-037</t>
+  </si>
+  <si>
+    <t>LL-006</t>
+  </si>
+  <si>
+    <t>LL-011</t>
+  </si>
+  <si>
+    <t>MA-117H</t>
+  </si>
+  <si>
+    <t>LORO-08</t>
+  </si>
+  <si>
+    <t>SANT-014</t>
+  </si>
+  <si>
+    <t>ARR-4</t>
+  </si>
+  <si>
+    <t>ARR-2</t>
+  </si>
+  <si>
+    <t>ACAE-06</t>
+  </si>
+  <si>
+    <t>DN-030</t>
+  </si>
+  <si>
+    <t>DN-020</t>
+  </si>
+  <si>
+    <t>PG-041</t>
+  </si>
+  <si>
+    <t>SC-009</t>
+  </si>
+  <si>
+    <t>PAL-004</t>
+  </si>
+  <si>
+    <t>SC-002W</t>
+  </si>
+  <si>
+    <t>MA-041</t>
+  </si>
+  <si>
+    <t>TL-051</t>
+  </si>
+  <si>
+    <t>ACAE-10</t>
+  </si>
+  <si>
+    <t>ACAE-13</t>
+  </si>
+  <si>
+    <t>LORO-12D</t>
+  </si>
+  <si>
+    <t>SC-006</t>
+  </si>
+  <si>
+    <t>LORO-16 ST</t>
+  </si>
+  <si>
+    <t>SF 66</t>
+  </si>
+  <si>
+    <t>DK 40</t>
+  </si>
+  <si>
+    <t>DN 33</t>
+  </si>
+  <si>
+    <t>DN 30</t>
+  </si>
+  <si>
+    <t>DN 40</t>
+  </si>
+  <si>
+    <t>SF 49</t>
+  </si>
+  <si>
+    <t>SF 081</t>
+  </si>
+  <si>
+    <t>TEMP-2</t>
+  </si>
+  <si>
+    <t>TEMP-1</t>
+  </si>
+  <si>
+    <t>RCHE1</t>
+  </si>
+  <si>
+    <t>BAGX39</t>
+  </si>
+  <si>
+    <t>CA226</t>
+  </si>
+  <si>
+    <t>CA460</t>
+  </si>
+  <si>
+    <t>CA86</t>
+  </si>
+  <si>
+    <t>CA702</t>
+  </si>
+  <si>
+    <t>LL138</t>
+  </si>
+  <si>
+    <t>GA39</t>
+  </si>
+  <si>
+    <t>GA41</t>
+  </si>
+  <si>
+    <t>LL171</t>
+  </si>
+  <si>
+    <t>LL177</t>
+  </si>
+  <si>
+    <t>LL182</t>
+  </si>
+  <si>
+    <t>LL168</t>
+  </si>
+  <si>
+    <t>LL166</t>
+  </si>
+  <si>
+    <t>LL330</t>
+  </si>
+  <si>
+    <t>YA0526</t>
+  </si>
+  <si>
+    <t>YA0525</t>
+  </si>
+  <si>
+    <t>YA0509</t>
+  </si>
+  <si>
+    <t>YA0506</t>
+  </si>
+  <si>
+    <t>YA0511</t>
+  </si>
+  <si>
+    <t>YA0516</t>
+  </si>
+  <si>
+    <t>GA130</t>
+  </si>
+  <si>
+    <t>GA038</t>
+  </si>
+  <si>
+    <t>TE6</t>
+  </si>
+  <si>
+    <t>SR003</t>
+  </si>
+  <si>
+    <t>PB010</t>
+  </si>
+  <si>
+    <t>CS1534</t>
+  </si>
+  <si>
+    <t>CG155</t>
+  </si>
+  <si>
+    <t>CG169 P</t>
+  </si>
+  <si>
+    <t>CG148 H</t>
+  </si>
+  <si>
+    <t>CG158</t>
+  </si>
+  <si>
+    <t>CG024</t>
+  </si>
+  <si>
+    <t>DN27</t>
+  </si>
+  <si>
+    <t>DN25</t>
+  </si>
+  <si>
+    <t>AC8A</t>
+  </si>
+  <si>
+    <t>DN18</t>
+  </si>
+  <si>
+    <t>AC14</t>
+  </si>
+  <si>
+    <t>DN033</t>
+  </si>
+  <si>
+    <t>DN037</t>
+  </si>
+  <si>
+    <t>LL006</t>
+  </si>
+  <si>
+    <t>LL011</t>
+  </si>
+  <si>
+    <t>MA117H</t>
+  </si>
+  <si>
+    <t>LO08</t>
+  </si>
+  <si>
+    <t>SA014</t>
+  </si>
+  <si>
+    <t>AR4</t>
+  </si>
+  <si>
+    <t>AR2</t>
+  </si>
+  <si>
+    <t>AC06</t>
+  </si>
+  <si>
+    <t>DN030</t>
+  </si>
+  <si>
+    <t>DN020</t>
+  </si>
+  <si>
+    <t>PG041</t>
+  </si>
+  <si>
+    <t>SC009</t>
+  </si>
+  <si>
+    <t>PA004</t>
+  </si>
+  <si>
+    <t>SC002W</t>
+  </si>
+  <si>
+    <t>MA041</t>
+  </si>
+  <si>
+    <t>TL051</t>
+  </si>
+  <si>
+    <t>AC10</t>
+  </si>
+  <si>
+    <t>AC13</t>
+  </si>
+  <si>
+    <t>LO12D</t>
+  </si>
+  <si>
+    <t>SC006</t>
+  </si>
+  <si>
+    <t>LO16 ST</t>
+  </si>
+  <si>
+    <t>SF66</t>
+  </si>
+  <si>
+    <t>DK40</t>
+  </si>
+  <si>
+    <t>DN33</t>
+  </si>
+  <si>
+    <t>DN30</t>
+  </si>
+  <si>
+    <t>DN40</t>
+  </si>
+  <si>
+    <t>SF49</t>
+  </si>
+  <si>
+    <t>SF081</t>
+  </si>
+  <si>
+    <t>TE2</t>
+  </si>
+  <si>
+    <t>TE1</t>
+  </si>
+  <si>
+    <t>RC1</t>
+  </si>
+  <si>
+    <t>BA39</t>
+  </si>
+  <si>
+    <t>CAN326</t>
   </si>
 </sst>
 </file>
@@ -710,15 +1130,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -726,7 +1146,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -734,7 +1154,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>100</v>
       </c>
@@ -742,7 +1162,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -750,7 +1170,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -758,7 +1178,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -766,7 +1186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -774,7 +1194,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -782,7 +1202,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -790,7 +1210,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -798,7 +1218,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -806,7 +1226,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -814,7 +1234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -822,7 +1242,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -830,7 +1250,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -838,7 +1258,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>102</v>
       </c>
@@ -846,7 +1266,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -854,7 +1274,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -862,7 +1282,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>103</v>
       </c>
@@ -870,7 +1290,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -878,7 +1298,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -886,7 +1306,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>17</v>
       </c>
@@ -894,7 +1314,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>18</v>
       </c>
@@ -902,7 +1322,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>19</v>
       </c>
@@ -910,7 +1330,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -918,7 +1338,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -926,7 +1346,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>22</v>
       </c>
@@ -934,7 +1354,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>23</v>
       </c>
@@ -942,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>24</v>
       </c>
@@ -950,7 +1370,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -958,7 +1378,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -966,7 +1386,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>27</v>
       </c>
@@ -974,7 +1394,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>28</v>
       </c>
@@ -982,7 +1402,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>30</v>
       </c>
@@ -990,7 +1410,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -998,7 +1418,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>32</v>
       </c>
@@ -1006,7 +1426,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>33</v>
       </c>
@@ -1014,7 +1434,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>29</v>
       </c>
@@ -1022,7 +1442,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>34</v>
       </c>
@@ -1030,7 +1450,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -1038,7 +1458,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -1046,7 +1466,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -1054,7 +1474,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -1062,7 +1482,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>39</v>
       </c>
@@ -1070,7 +1490,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>40</v>
       </c>
@@ -1078,7 +1498,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>41</v>
       </c>
@@ -1086,7 +1506,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>104</v>
       </c>
@@ -1094,7 +1514,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>105</v>
       </c>
@@ -1102,7 +1522,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -1110,7 +1530,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1118,7 +1538,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1126,7 +1546,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>44</v>
       </c>
@@ -1134,7 +1554,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>45</v>
       </c>
@@ -1142,7 +1562,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>46</v>
       </c>
@@ -1150,7 +1570,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -1158,7 +1578,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -1166,7 +1586,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -1174,7 +1594,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -1182,7 +1602,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -1190,7 +1610,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>112</v>
       </c>
@@ -1198,12 +1618,572 @@
         <v>119</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>113</v>
       </c>
       <c r="B61" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>125</v>
+      </c>
+      <c r="B65" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>128</v>
+      </c>
+      <c r="B68" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>131</v>
+      </c>
+      <c r="B71" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>132</v>
+      </c>
+      <c r="B72" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>133</v>
+      </c>
+      <c r="B73" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>134</v>
+      </c>
+      <c r="B74" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>136</v>
+      </c>
+      <c r="B76" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>137</v>
+      </c>
+      <c r="B77" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>138</v>
+      </c>
+      <c r="B78" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>139</v>
+      </c>
+      <c r="B79" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>140</v>
+      </c>
+      <c r="B80" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>141</v>
+      </c>
+      <c r="B81" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>142</v>
+      </c>
+      <c r="B82" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>143</v>
+      </c>
+      <c r="B83" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>144</v>
+      </c>
+      <c r="B84" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>145</v>
+      </c>
+      <c r="B85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>146</v>
+      </c>
+      <c r="B86" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>147</v>
+      </c>
+      <c r="B87" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>148</v>
+      </c>
+      <c r="B88" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>149</v>
+      </c>
+      <c r="B89" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>150</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>152</v>
+      </c>
+      <c r="B92" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>153</v>
+      </c>
+      <c r="B93" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>154</v>
+      </c>
+      <c r="B94" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>155</v>
+      </c>
+      <c r="B95" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>156</v>
+      </c>
+      <c r="B96" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>157</v>
+      </c>
+      <c r="B97" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>158</v>
+      </c>
+      <c r="B98" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>159</v>
+      </c>
+      <c r="B99" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>160</v>
+      </c>
+      <c r="B100" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>161</v>
+      </c>
+      <c r="B101" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>162</v>
+      </c>
+      <c r="B102" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>163</v>
+      </c>
+      <c r="B103" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>165</v>
+      </c>
+      <c r="B105" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>166</v>
+      </c>
+      <c r="B106" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>167</v>
+      </c>
+      <c r="B107" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>168</v>
+      </c>
+      <c r="B108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>169</v>
+      </c>
+      <c r="B109" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>170</v>
+      </c>
+      <c r="B110" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>172</v>
+      </c>
+      <c r="B112" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>173</v>
+      </c>
+      <c r="B113" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>174</v>
+      </c>
+      <c r="B114" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>175</v>
+      </c>
+      <c r="B115" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>176</v>
+      </c>
+      <c r="B116" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>177</v>
+      </c>
+      <c r="B117" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>178</v>
+      </c>
+      <c r="B118" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>179</v>
+      </c>
+      <c r="B119" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>180</v>
+      </c>
+      <c r="B120" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>181</v>
+      </c>
+      <c r="B121" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>182</v>
+      </c>
+      <c r="B122" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>183</v>
+      </c>
+      <c r="B123" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>184</v>
+      </c>
+      <c r="B124" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>185</v>
+      </c>
+      <c r="B125" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>186</v>
+      </c>
+      <c r="B126" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>187</v>
+      </c>
+      <c r="B127" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>188</v>
+      </c>
+      <c r="B128" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>189</v>
+      </c>
+      <c r="B129" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>190</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>191</v>
+      </c>
+      <c r="B131" t="s">
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$57</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$99</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Pozo</t>
   </si>
@@ -410,195 +410,6 @@
     <t>CAN-326</t>
   </si>
   <si>
-    <t>LL-138</t>
-  </si>
-  <si>
-    <t>GA-39</t>
-  </si>
-  <si>
-    <t>GA-41</t>
-  </si>
-  <si>
-    <t>LL-171</t>
-  </si>
-  <si>
-    <t>LL-177</t>
-  </si>
-  <si>
-    <t>LL-182</t>
-  </si>
-  <si>
-    <t>LL-168</t>
-  </si>
-  <si>
-    <t>LL-166</t>
-  </si>
-  <si>
-    <t>LL-330</t>
-  </si>
-  <si>
-    <t>YARI-0526</t>
-  </si>
-  <si>
-    <t>YARI-0525</t>
-  </si>
-  <si>
-    <t>YARI-0509</t>
-  </si>
-  <si>
-    <t>YARI-0506</t>
-  </si>
-  <si>
-    <t>YARI-0511</t>
-  </si>
-  <si>
-    <t>YARI-0516</t>
-  </si>
-  <si>
-    <t>GALAN-130</t>
-  </si>
-  <si>
-    <t>GALA-038</t>
-  </si>
-  <si>
-    <t>TESO-6</t>
-  </si>
-  <si>
-    <t>SROQ-003</t>
-  </si>
-  <si>
-    <t>PBLA 010</t>
-  </si>
-  <si>
-    <t>CSB-1534</t>
-  </si>
-  <si>
-    <t>CG-155</t>
-  </si>
-  <si>
-    <t>CG-169 P</t>
-  </si>
-  <si>
-    <t>CG-148 H</t>
-  </si>
-  <si>
-    <t>CG-158</t>
-  </si>
-  <si>
-    <t>CG-024</t>
-  </si>
-  <si>
-    <t>DN-27</t>
-  </si>
-  <si>
-    <t>DN-25</t>
-  </si>
-  <si>
-    <t>ACAE-8A</t>
-  </si>
-  <si>
-    <t>DN-18</t>
-  </si>
-  <si>
-    <t>ACAE-14</t>
-  </si>
-  <si>
-    <t>DN-033</t>
-  </si>
-  <si>
-    <t>DN-037</t>
-  </si>
-  <si>
-    <t>LL-006</t>
-  </si>
-  <si>
-    <t>LL-011</t>
-  </si>
-  <si>
-    <t>MA-117H</t>
-  </si>
-  <si>
-    <t>LORO-08</t>
-  </si>
-  <si>
-    <t>SANT-014</t>
-  </si>
-  <si>
-    <t>ARR-4</t>
-  </si>
-  <si>
-    <t>ARR-2</t>
-  </si>
-  <si>
-    <t>ACAE-06</t>
-  </si>
-  <si>
-    <t>DN-030</t>
-  </si>
-  <si>
-    <t>DN-020</t>
-  </si>
-  <si>
-    <t>PG-041</t>
-  </si>
-  <si>
-    <t>SC-009</t>
-  </si>
-  <si>
-    <t>PAL-004</t>
-  </si>
-  <si>
-    <t>SC-002W</t>
-  </si>
-  <si>
-    <t>MA-041</t>
-  </si>
-  <si>
-    <t>TL-051</t>
-  </si>
-  <si>
-    <t>ACAE-10</t>
-  </si>
-  <si>
-    <t>ACAE-13</t>
-  </si>
-  <si>
-    <t>LORO-12D</t>
-  </si>
-  <si>
-    <t>SC-006</t>
-  </si>
-  <si>
-    <t>LORO-16 ST</t>
-  </si>
-  <si>
-    <t>SF 66</t>
-  </si>
-  <si>
-    <t>DK 40</t>
-  </si>
-  <si>
-    <t>DN 33</t>
-  </si>
-  <si>
-    <t>DN 30</t>
-  </si>
-  <si>
-    <t>DN 40</t>
-  </si>
-  <si>
-    <t>SF 49</t>
-  </si>
-  <si>
-    <t>SF 081</t>
-  </si>
-  <si>
-    <t>TEMP-2</t>
-  </si>
-  <si>
-    <t>TEMP-1</t>
-  </si>
-  <si>
     <t>RCHE1</t>
   </si>
   <si>
@@ -617,202 +428,199 @@
     <t>CA702</t>
   </si>
   <si>
-    <t>LL138</t>
-  </si>
-  <si>
-    <t>GA39</t>
-  </si>
-  <si>
-    <t>GA41</t>
-  </si>
-  <si>
-    <t>LL171</t>
-  </si>
-  <si>
-    <t>LL177</t>
-  </si>
-  <si>
-    <t>LL182</t>
-  </si>
-  <si>
-    <t>LL168</t>
-  </si>
-  <si>
-    <t>LL166</t>
-  </si>
-  <si>
-    <t>LL330</t>
-  </si>
-  <si>
-    <t>YA0526</t>
-  </si>
-  <si>
-    <t>YA0525</t>
-  </si>
-  <si>
-    <t>YA0509</t>
-  </si>
-  <si>
-    <t>YA0506</t>
-  </si>
-  <si>
-    <t>YA0511</t>
-  </si>
-  <si>
-    <t>YA0516</t>
-  </si>
-  <si>
-    <t>GA130</t>
-  </si>
-  <si>
-    <t>GA038</t>
-  </si>
-  <si>
-    <t>TE6</t>
-  </si>
-  <si>
-    <t>SR003</t>
-  </si>
-  <si>
-    <t>PB010</t>
-  </si>
-  <si>
-    <t>CS1534</t>
-  </si>
-  <si>
-    <t>CG155</t>
-  </si>
-  <si>
-    <t>CG169 P</t>
-  </si>
-  <si>
-    <t>CG148 H</t>
-  </si>
-  <si>
-    <t>CG158</t>
-  </si>
-  <si>
-    <t>CG024</t>
-  </si>
-  <si>
-    <t>DN27</t>
-  </si>
-  <si>
-    <t>DN25</t>
-  </si>
-  <si>
-    <t>AC8A</t>
-  </si>
-  <si>
-    <t>DN18</t>
-  </si>
-  <si>
-    <t>AC14</t>
-  </si>
-  <si>
-    <t>DN033</t>
-  </si>
-  <si>
-    <t>DN037</t>
-  </si>
-  <si>
-    <t>LL006</t>
-  </si>
-  <si>
-    <t>LL011</t>
-  </si>
-  <si>
-    <t>MA117H</t>
-  </si>
-  <si>
-    <t>LO08</t>
-  </si>
-  <si>
-    <t>SA014</t>
-  </si>
-  <si>
-    <t>AR4</t>
-  </si>
-  <si>
-    <t>AR2</t>
-  </si>
-  <si>
-    <t>AC06</t>
-  </si>
-  <si>
-    <t>DN030</t>
-  </si>
-  <si>
-    <t>DN020</t>
-  </si>
-  <si>
-    <t>PG041</t>
-  </si>
-  <si>
-    <t>SC009</t>
-  </si>
-  <si>
-    <t>PA004</t>
-  </si>
-  <si>
-    <t>SC002W</t>
-  </si>
-  <si>
-    <t>MA041</t>
-  </si>
-  <si>
-    <t>TL051</t>
-  </si>
-  <si>
-    <t>AC10</t>
-  </si>
-  <si>
-    <t>AC13</t>
-  </si>
-  <si>
-    <t>LO12D</t>
-  </si>
-  <si>
-    <t>SC006</t>
-  </si>
-  <si>
-    <t>LO16 ST</t>
-  </si>
-  <si>
-    <t>SF66</t>
-  </si>
-  <si>
-    <t>DK40</t>
-  </si>
-  <si>
-    <t>DN33</t>
-  </si>
-  <si>
-    <t>DN30</t>
-  </si>
-  <si>
-    <t>DN40</t>
-  </si>
-  <si>
-    <t>SF49</t>
-  </si>
-  <si>
-    <t>SF081</t>
-  </si>
-  <si>
-    <t>TE2</t>
-  </si>
-  <si>
-    <t>TE1</t>
-  </si>
-  <si>
-    <t>RC1</t>
-  </si>
-  <si>
-    <t>BA39</t>
-  </si>
-  <si>
     <t>CAN326</t>
+  </si>
+  <si>
+    <t>CAST-236</t>
+  </si>
+  <si>
+    <t>CAN-184</t>
+  </si>
+  <si>
+    <t>CHSW-078</t>
+  </si>
+  <si>
+    <t>CHI-014</t>
+  </si>
+  <si>
+    <t>CHI-214</t>
+  </si>
+  <si>
+    <t>CHI-184</t>
+  </si>
+  <si>
+    <t>CHI-178</t>
+  </si>
+  <si>
+    <t>SURIA-081</t>
+  </si>
+  <si>
+    <t>SURIA-104</t>
+  </si>
+  <si>
+    <t>APIAY-080</t>
+  </si>
+  <si>
+    <t>SURIAS-011</t>
+  </si>
+  <si>
+    <t>SURIAS-079</t>
+  </si>
+  <si>
+    <t>SURIAS-008</t>
+  </si>
+  <si>
+    <t>APIAYE-002</t>
+  </si>
+  <si>
+    <t>SURIA-009</t>
+  </si>
+  <si>
+    <t>SURIAS-003</t>
+  </si>
+  <si>
+    <t>SURIA-052</t>
+  </si>
+  <si>
+    <t>SURIA-058</t>
+  </si>
+  <si>
+    <t>CHI-224</t>
+  </si>
+  <si>
+    <t>CHI-227</t>
+  </si>
+  <si>
+    <t>SURIAS-010</t>
+  </si>
+  <si>
+    <t>APIAY-044H</t>
+  </si>
+  <si>
+    <t>SURIA-068</t>
+  </si>
+  <si>
+    <t>APIAY-042H</t>
+  </si>
+  <si>
+    <t>SURIAS-015</t>
+  </si>
+  <si>
+    <t>YARI-0133</t>
+  </si>
+  <si>
+    <t>CG-161</t>
+  </si>
+  <si>
+    <t>YARI-0109</t>
+  </si>
+  <si>
+    <t>CG-0149H</t>
+  </si>
+  <si>
+    <t>YARI-0508</t>
+  </si>
+  <si>
+    <t>YARI-0546</t>
+  </si>
+  <si>
+    <t>RCHE-1</t>
+  </si>
+  <si>
+    <t>BA-GX39</t>
+  </si>
+  <si>
+    <t>CA236</t>
+  </si>
+  <si>
+    <t>CAN184</t>
+  </si>
+  <si>
+    <t>CHSW78</t>
+  </si>
+  <si>
+    <t>CHI14</t>
+  </si>
+  <si>
+    <t>CHI214</t>
+  </si>
+  <si>
+    <t>CHI184</t>
+  </si>
+  <si>
+    <t>CHI178</t>
+  </si>
+  <si>
+    <t>SURIA81</t>
+  </si>
+  <si>
+    <t>SURIA104</t>
+  </si>
+  <si>
+    <t>APIAY80</t>
+  </si>
+  <si>
+    <t>SURIAS11</t>
+  </si>
+  <si>
+    <t>SURIAS79</t>
+  </si>
+  <si>
+    <t>SURIAS8</t>
+  </si>
+  <si>
+    <t>APIAYE2</t>
+  </si>
+  <si>
+    <t>SURIA9</t>
+  </si>
+  <si>
+    <t>SURIAS3</t>
+  </si>
+  <si>
+    <t>SURIA52</t>
+  </si>
+  <si>
+    <t>SURIA58</t>
+  </si>
+  <si>
+    <t>CHI224</t>
+  </si>
+  <si>
+    <t>CHI227</t>
+  </si>
+  <si>
+    <t>SURIAS10</t>
+  </si>
+  <si>
+    <t>APIAY044H</t>
+  </si>
+  <si>
+    <t>SURIA68</t>
+  </si>
+  <si>
+    <t>APIAY042H</t>
+  </si>
+  <si>
+    <t>SURIAS15</t>
+  </si>
+  <si>
+    <t>YARI133</t>
+  </si>
+  <si>
+    <t>CG161</t>
+  </si>
+  <si>
+    <t>YARI109</t>
+  </si>
+  <si>
+    <t>CG0149H</t>
+  </si>
+  <si>
+    <t>YARI508</t>
+  </si>
+  <si>
+    <t>YARI546</t>
   </si>
 </sst>
 </file>
@@ -1130,10 +938,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B131"/>
+  <dimension ref="A1:B99"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B67" sqref="B67"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1631,7 +1439,7 @@
         <v>122</v>
       </c>
       <c r="B62" t="s">
-        <v>192</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -1639,7 +1447,7 @@
         <v>123</v>
       </c>
       <c r="B63" t="s">
-        <v>193</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -1647,7 +1455,7 @@
         <v>124</v>
       </c>
       <c r="B64" t="s">
-        <v>194</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -1655,7 +1463,7 @@
         <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>195</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -1663,531 +1471,275 @@
         <v>126</v>
       </c>
       <c r="B66" t="s">
-        <v>261</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B72" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B74" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="B75" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="B76" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B78" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B79" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="B80" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B81" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="B82" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B83" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B84" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B85" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B86" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B87" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B88" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="B89" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B90" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B91" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="B93" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B96" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B97" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="B98" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B99" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>160</v>
-      </c>
-      <c r="B100" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>161</v>
-      </c>
-      <c r="B101" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>162</v>
-      </c>
-      <c r="B102" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>163</v>
-      </c>
-      <c r="B103" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>164</v>
-      </c>
-      <c r="B104" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>165</v>
-      </c>
-      <c r="B105" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>166</v>
-      </c>
-      <c r="B106" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>167</v>
-      </c>
-      <c r="B107" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>168</v>
-      </c>
-      <c r="B108" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>169</v>
-      </c>
-      <c r="B109" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>170</v>
-      </c>
-      <c r="B110" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>171</v>
-      </c>
-      <c r="B111" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>172</v>
-      </c>
-      <c r="B112" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>173</v>
-      </c>
-      <c r="B113" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>174</v>
-      </c>
-      <c r="B114" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>175</v>
-      </c>
-      <c r="B115" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>176</v>
-      </c>
-      <c r="B116" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>177</v>
-      </c>
-      <c r="B117" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>178</v>
-      </c>
-      <c r="B118" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
-        <v>179</v>
-      </c>
-      <c r="B119" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" t="s">
-        <v>180</v>
-      </c>
-      <c r="B120" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
-        <v>181</v>
-      </c>
-      <c r="B121" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
-        <v>182</v>
-      </c>
-      <c r="B122" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" t="s">
-        <v>183</v>
-      </c>
-      <c r="B123" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
-        <v>184</v>
-      </c>
-      <c r="B124" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" t="s">
-        <v>185</v>
-      </c>
-      <c r="B125" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" t="s">
-        <v>186</v>
-      </c>
-      <c r="B126" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" t="s">
-        <v>187</v>
-      </c>
-      <c r="B127" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" t="s">
-        <v>188</v>
-      </c>
-      <c r="B128" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
-        <v>189</v>
-      </c>
-      <c r="B129" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" t="s">
-        <v>190</v>
-      </c>
-      <c r="B130" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" t="s">
-        <v>191</v>
-      </c>
-      <c r="B131" t="s">
-        <v>260</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B57"/>
+  <autoFilter ref="A1:A99"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$A$99</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$B$113</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,8 +26,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Francisco Guerrero Urrego</author>
+  </authors>
+  <commentList>
+    <comment ref="A112" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RIO CHITAMENA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A113" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>BUENOS AIRES-GX39</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
   <si>
     <t>Pozo</t>
   </si>
@@ -440,60 +477,21 @@
     <t>CHSW-078</t>
   </si>
   <si>
-    <t>CHI-014</t>
-  </si>
-  <si>
-    <t>CHI-214</t>
-  </si>
-  <si>
-    <t>CHI-184</t>
-  </si>
-  <si>
-    <t>CHI-178</t>
-  </si>
-  <si>
     <t>SURIA-081</t>
   </si>
   <si>
     <t>SURIA-104</t>
   </si>
   <si>
-    <t>APIAY-080</t>
-  </si>
-  <si>
-    <t>SURIAS-011</t>
-  </si>
-  <si>
-    <t>SURIAS-079</t>
-  </si>
-  <si>
-    <t>SURIAS-008</t>
-  </si>
-  <si>
-    <t>APIAYE-002</t>
-  </si>
-  <si>
     <t>SURIA-009</t>
   </si>
   <si>
-    <t>SURIAS-003</t>
-  </si>
-  <si>
     <t>SURIA-052</t>
   </si>
   <si>
     <t>SURIA-058</t>
   </si>
   <si>
-    <t>CHI-224</t>
-  </si>
-  <si>
-    <t>CHI-227</t>
-  </si>
-  <si>
-    <t>SURIAS-010</t>
-  </si>
-  <si>
     <t>APIAY-044H</t>
   </si>
   <si>
@@ -503,33 +501,12 @@
     <t>APIAY-042H</t>
   </si>
   <si>
-    <t>SURIAS-015</t>
-  </si>
-  <si>
-    <t>YARI-0133</t>
-  </si>
-  <si>
     <t>CG-161</t>
   </si>
   <si>
-    <t>YARI-0109</t>
-  </si>
-  <si>
-    <t>CG-0149H</t>
-  </si>
-  <si>
-    <t>YARI-0508</t>
-  </si>
-  <si>
-    <t>YARI-0546</t>
-  </si>
-  <si>
     <t>RCHE-1</t>
   </si>
   <si>
-    <t>BA-GX39</t>
-  </si>
-  <si>
     <t>CA236</t>
   </si>
   <si>
@@ -539,18 +516,6 @@
     <t>CHSW78</t>
   </si>
   <si>
-    <t>CHI14</t>
-  </si>
-  <si>
-    <t>CHI214</t>
-  </si>
-  <si>
-    <t>CHI184</t>
-  </si>
-  <si>
-    <t>CHI178</t>
-  </si>
-  <si>
     <t>SURIA81</t>
   </si>
   <si>
@@ -560,39 +525,15 @@
     <t>APIAY80</t>
   </si>
   <si>
-    <t>SURIAS11</t>
-  </si>
-  <si>
-    <t>SURIAS79</t>
-  </si>
-  <si>
-    <t>SURIAS8</t>
-  </si>
-  <si>
-    <t>APIAYE2</t>
-  </si>
-  <si>
     <t>SURIA9</t>
   </si>
   <si>
-    <t>SURIAS3</t>
-  </si>
-  <si>
     <t>SURIA52</t>
   </si>
   <si>
     <t>SURIA58</t>
   </si>
   <si>
-    <t>CHI224</t>
-  </si>
-  <si>
-    <t>CHI227</t>
-  </si>
-  <si>
-    <t>SURIAS10</t>
-  </si>
-  <si>
     <t>APIAY044H</t>
   </si>
   <si>
@@ -602,9 +543,6 @@
     <t>APIAY042H</t>
   </si>
   <si>
-    <t>SURIAS15</t>
-  </si>
-  <si>
     <t>YARI133</t>
   </si>
   <si>
@@ -614,26 +552,219 @@
     <t>YARI109</t>
   </si>
   <si>
-    <t>CG0149H</t>
-  </si>
-  <si>
     <t>YARI508</t>
   </si>
   <si>
     <t>YARI546</t>
+  </si>
+  <si>
+    <t>CAN-29</t>
+  </si>
+  <si>
+    <t>CAN-195</t>
+  </si>
+  <si>
+    <t>CH-014</t>
+  </si>
+  <si>
+    <t>CH-214</t>
+  </si>
+  <si>
+    <t>CH-184</t>
+  </si>
+  <si>
+    <t>CH-178</t>
+  </si>
+  <si>
+    <t>APIAY-80</t>
+  </si>
+  <si>
+    <t>SS-011</t>
+  </si>
+  <si>
+    <t>SURIA-079</t>
+  </si>
+  <si>
+    <t>SS-008</t>
+  </si>
+  <si>
+    <t>APIAY E-002</t>
+  </si>
+  <si>
+    <t>SS-003</t>
+  </si>
+  <si>
+    <t>CH-224</t>
+  </si>
+  <si>
+    <t>CH-227</t>
+  </si>
+  <si>
+    <t>SS-010</t>
+  </si>
+  <si>
+    <t>SS-015</t>
+  </si>
+  <si>
+    <t>CH-068</t>
+  </si>
+  <si>
+    <t>CH-226</t>
+  </si>
+  <si>
+    <t>CH-012A</t>
+  </si>
+  <si>
+    <t>CH-207</t>
+  </si>
+  <si>
+    <t>GUAT-018</t>
+  </si>
+  <si>
+    <t>SS-002</t>
+  </si>
+  <si>
+    <t>SS-007</t>
+  </si>
+  <si>
+    <t>SURIA-003</t>
+  </si>
+  <si>
+    <t>YARI-133</t>
+  </si>
+  <si>
+    <t>YARI-109</t>
+  </si>
+  <si>
+    <t>CG-149H</t>
+  </si>
+  <si>
+    <t>YARI-508</t>
+  </si>
+  <si>
+    <t>YARI-546</t>
+  </si>
+  <si>
+    <t>LLAN-267</t>
+  </si>
+  <si>
+    <t>LLAN-143</t>
+  </si>
+  <si>
+    <t>LLAN-39</t>
+  </si>
+  <si>
+    <t>BA-GX-39</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>CAN29</t>
+  </si>
+  <si>
+    <t>CAN195</t>
+  </si>
+  <si>
+    <t>CH014</t>
+  </si>
+  <si>
+    <t>CH214</t>
+  </si>
+  <si>
+    <t>CH184</t>
+  </si>
+  <si>
+    <t>CH178</t>
+  </si>
+  <si>
+    <t>APIAYE002</t>
+  </si>
+  <si>
+    <t>SS011</t>
+  </si>
+  <si>
+    <t>SURIA079</t>
+  </si>
+  <si>
+    <t>SS008</t>
+  </si>
+  <si>
+    <t>SS003</t>
+  </si>
+  <si>
+    <t>CH224</t>
+  </si>
+  <si>
+    <t>CH227</t>
+  </si>
+  <si>
+    <t>SS010</t>
+  </si>
+  <si>
+    <t>SS015</t>
+  </si>
+  <si>
+    <t>CH068</t>
+  </si>
+  <si>
+    <t>CH226</t>
+  </si>
+  <si>
+    <t>CH012A</t>
+  </si>
+  <si>
+    <t>CH207</t>
+  </si>
+  <si>
+    <t>GUAT018</t>
+  </si>
+  <si>
+    <t>SS002</t>
+  </si>
+  <si>
+    <t>SS007</t>
+  </si>
+  <si>
+    <t>SURIA003</t>
+  </si>
+  <si>
+    <t>CG149H</t>
+  </si>
+  <si>
+    <t>LLAN267</t>
+  </si>
+  <si>
+    <t>LLAN143</t>
+  </si>
+  <si>
+    <t>LLAN39</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -937,11 +1068,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B99"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,7 +1610,7 @@
         <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -1487,259 +1618,377 @@
         <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>136</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>137</v>
+        <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B71" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="B72" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>173</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B76" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>170</v>
       </c>
       <c r="B78" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>147</v>
+        <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>180</v>
+        <v>206</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>181</v>
+        <v>207</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>154</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>186</v>
+        <v>155</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>156</v>
+        <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="B90" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>193</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>194</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>195</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>127</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>185</v>
+      </c>
+      <c r="B100" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>186</v>
+      </c>
+      <c r="B101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>187</v>
+      </c>
+      <c r="B102" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>188</v>
+      </c>
+      <c r="B103" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>145</v>
+      </c>
+      <c r="B104" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>189</v>
+      </c>
+      <c r="B105" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>190</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>191</v>
+      </c>
+      <c r="B107" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>192</v>
+      </c>
+      <c r="B108" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>193</v>
+      </c>
+      <c r="B109" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>194</v>
+      </c>
+      <c r="B110" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>195</v>
+      </c>
+      <c r="B111" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>146</v>
+      </c>
+      <c r="B112" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>196</v>
+      </c>
+      <c r="B113" t="s">
         <v>128</v>
       </c>
     </row>
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1048576" t="s">
+        <v>197</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:A99"/>
+  <autoFilter ref="A1:B113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -26,43 +26,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Francisco Guerrero Urrego</author>
-  </authors>
-  <commentList>
-    <comment ref="A112" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>RIO CHITAMENA</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A113" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>BUENOS AIRES-GX39</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
   <si>
@@ -745,26 +708,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1068,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1989,6 +1939,5 @@
   </sheetData>
   <autoFilter ref="A1:B113"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/bd/id_pozos.xlsx
+++ b/bd/id_pozos.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="224">
   <si>
     <t>Pozo</t>
   </si>
@@ -618,9 +618,6 @@
   </si>
   <si>
     <t>BA-GX-39</t>
-  </si>
-  <si>
-    <t>CA</t>
   </si>
   <si>
     <t>CAN29</t>
@@ -1019,11 +1016,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1576,7 +1571,7 @@
         <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -1584,7 +1579,7 @@
         <v>165</v>
       </c>
       <c r="B70" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -1600,7 +1595,7 @@
         <v>166</v>
       </c>
       <c r="B72" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -1608,7 +1603,7 @@
         <v>167</v>
       </c>
       <c r="B73" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -1616,7 +1611,7 @@
         <v>168</v>
       </c>
       <c r="B74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -1624,7 +1619,7 @@
         <v>169</v>
       </c>
       <c r="B75" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -1656,7 +1651,7 @@
         <v>171</v>
       </c>
       <c r="B79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -1664,7 +1659,7 @@
         <v>172</v>
       </c>
       <c r="B80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -1672,7 +1667,7 @@
         <v>173</v>
       </c>
       <c r="B81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -1680,7 +1675,7 @@
         <v>174</v>
       </c>
       <c r="B82" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -1696,7 +1691,7 @@
         <v>175</v>
       </c>
       <c r="B84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -1720,7 +1715,7 @@
         <v>176</v>
       </c>
       <c r="B87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -1728,7 +1723,7 @@
         <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -1736,7 +1731,7 @@
         <v>178</v>
       </c>
       <c r="B89" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -1768,7 +1763,7 @@
         <v>179</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -1776,7 +1771,7 @@
         <v>180</v>
       </c>
       <c r="B94" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -1784,7 +1779,7 @@
         <v>181</v>
       </c>
       <c r="B95" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -1792,7 +1787,7 @@
         <v>182</v>
       </c>
       <c r="B96" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -1800,7 +1795,7 @@
         <v>183</v>
       </c>
       <c r="B97" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -1808,7 +1803,7 @@
         <v>178</v>
       </c>
       <c r="B98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -1816,7 +1811,7 @@
         <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -1824,7 +1819,7 @@
         <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -1832,7 +1827,7 @@
         <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -1840,7 +1835,7 @@
         <v>187</v>
       </c>
       <c r="B102" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -1872,7 +1867,7 @@
         <v>190</v>
       </c>
       <c r="B106" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -1896,7 +1891,7 @@
         <v>193</v>
       </c>
       <c r="B109" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,7 +1899,7 @@
         <v>194</v>
       </c>
       <c r="B110" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -1912,7 +1907,7 @@
         <v>195</v>
       </c>
       <c r="B111" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -1929,11 +1924,6 @@
       </c>
       <c r="B113" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1048576" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
